--- a/scrapers/scraped-data/Spandauer Eis-Cup 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/Spandauer Eis-Cup 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1539,7 +1539,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3329,7 +3329,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4340,7 +4340,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
